--- a/5E22B510.xlsx
+++ b/5E22B510.xlsx
@@ -9,7 +9,8 @@
   <sheets>
     <sheet name="Тарификация" sheetId="1" r:id="rId1"/>
     <sheet name="Учителя" sheetId="2" r:id="rId2"/>
-    <sheet name="Корпуса" sheetId="3" r:id="rId3"/>
+    <sheet name="Кабинеты" sheetId="4" r:id="rId3"/>
+    <sheet name="Корпуса" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Учителя!$A$1:$A$104</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5635" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5637" uniqueCount="185">
   <si>
     <t>Учитель</t>
   </si>
@@ -551,12 +552,6 @@
     <t>Кабинет</t>
   </si>
   <si>
-    <t>Кол-во уроков в день</t>
-  </si>
-  <si>
-    <t>Методическое время</t>
-  </si>
-  <si>
     <t>10и, 2</t>
   </si>
   <si>
@@ -579,6 +574,12 @@
   </si>
   <si>
     <t>Пятница</t>
+  </si>
+  <si>
+    <t>Вместимость</t>
+  </si>
+  <si>
+    <t>(урок, корпус; урок, корпус); (урок, корпус; урок, корпус)</t>
   </si>
 </sst>
 </file>
@@ -839,7 +840,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
@@ -999,6 +1000,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1281,9 +1290,9 @@
   <dimension ref="A1:BI236"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AJ1" sqref="AJ1"/>
-      <selection pane="bottomLeft" activeCell="AP107" sqref="AP107"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14298,7 +14307,7 @@
         <v>132</v>
       </c>
       <c r="BF71" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="BG71" s="15" t="s">
         <v>61</v>
@@ -14487,7 +14496,7 @@
         <v>102</v>
       </c>
       <c r="BH72" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="BI72" s="16"/>
     </row>
@@ -21120,14 +21129,14 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="56" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="26.85546875" customWidth="1"/>
     <col min="7" max="8" width="26" customWidth="1"/>
@@ -21142,56 +21151,60 @@
         <v>174</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>175</v>
-      </c>
-      <c r="D1" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="67" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="67" t="s">
-        <v>180</v>
-      </c>
-      <c r="F1" s="61" t="s">
+      <c r="G1" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="G1" s="67" t="s">
-        <v>183</v>
-      </c>
-      <c r="H1" s="67" t="s">
+      <c r="I1" s="72"/>
+      <c r="J1" s="73"/>
+      <c r="M1" s="62"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="69">
+        <v>228</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="70" t="s">
         <v>184</v>
       </c>
-      <c r="I1" s="61" t="s">
-        <v>176</v>
-      </c>
-      <c r="M1" s="62"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70" t="s">
-        <v>179</v>
-      </c>
       <c r="E2" s="70" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F2" s="70" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G2" s="70" t="s">
-        <v>179</v>
-      </c>
-      <c r="H2" s="70" t="s">
-        <v>179</v>
-      </c>
-      <c r="I2" s="70"/>
+        <v>177</v>
+      </c>
+      <c r="I2" s="74"/>
+      <c r="J2" s="73"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="64"/>
       <c r="B3" s="63"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="64"/>
       <c r="B4" s="63"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="64"/>
@@ -21594,6 +21607,200 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="71"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="71"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="71"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="71"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="71"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="71"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="71"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="71"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="71"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="71"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="71"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="71"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="71"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="71"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="71"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="71"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="71"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="71"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="71"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="71"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="71"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="71"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="71"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="71"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="71"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="71"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="71"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">

--- a/5E22B510.xlsx
+++ b/5E22B510.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5637" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5638" uniqueCount="186">
   <si>
     <t>Учитель</t>
   </si>
@@ -581,6 +581,9 @@
   <si>
     <t>(урок, корпус; урок, корпус); (урок, корпус; урок, корпус)</t>
   </si>
+  <si>
+    <t>Класс</t>
+  </si>
 </sst>
 </file>
 
@@ -782,7 +785,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -836,11 +839,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
@@ -1008,6 +1022,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -21129,7 +21146,7 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21164,6 +21181,9 @@
       </c>
       <c r="G1" s="67" t="s">
         <v>182</v>
+      </c>
+      <c r="H1" s="75" t="s">
+        <v>185</v>
       </c>
       <c r="I1" s="72"/>
       <c r="J1" s="73"/>
